--- a/biology/Médecine/Glomérulonéphrite_lupique/Glomérulonéphrite_lupique.xlsx
+++ b/biology/Médecine/Glomérulonéphrite_lupique/Glomérulonéphrite_lupique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rulon%C3%A9phrite_lupique</t>
+          <t>Glomérulonéphrite_lupique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rulon%C3%A9phrite_lupique</t>
+          <t>Glomérulonéphrite_lupique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Définition et épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lupus est une maladie auto-immune systémique qui peut toucher plusieurs organes. L’atteinte rénale (aussi
 appelée « glomérulonéphrite lupique » car touchant le « glomérule » qui est la structure interne du rein) est une
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glom%C3%A9rulon%C3%A9phrite_lupique</t>
+          <t>Glomérulonéphrite_lupique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,19 +560,89 @@
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Au cours du lupus, préserver la fonction rénale à long terme nécessite d’une part une détection précoce de l’atteinte rénale, et d’autre part de mettre en place le plus rapidement possible une stratégie thérapeutique adaptée.
-Il est donc très important, pour tous les patients atteints de lupus, de faire suivre régulièrement l’état de leur fonction rénale (protéinurie 24h, sédiments urinaires, biopsie rénale si nécessaire) par une équipe médicale spécialisée.
-Biopsie rénale
-Deux types d’examens permettre de suivre l’évolution de la maladie lupique en général et plus particulièrement l’état de la fonction rénale : 
+Il est donc très important, pour tous les patients atteints de lupus, de faire suivre régulièrement l’état de leur fonction rénale (protéinurie 24h, sédiments urinaires, biopsie rénale si nécessaire) par une équipe médicale spécialisée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glomérulonéphrite_lupique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glom%C3%A9rulon%C3%A9phrite_lupique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Biopsie rénale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux types d’examens permettre de suivre l’évolution de la maladie lupique en général et plus particulièrement l’état de la fonction rénale : 
 Des examens biologiques (prélèvement sanguin et/ou urinaire)
 Des examens histologiques plus poussés (prélèvement par biopsie d’une petite quantité de tissus ou d’organe suspecté d’être touché)
 Au cours du lupus, l’atteinte rénale peut demeurer « silencieuse » car il n’y a malheureusement pas ou peu de corrélation entre les signes cliniques (visibles de l’extérieur) et la présence d’anormalités histologiques du rein (visible uniquement au microscope sur une biopsie). C’est pour cette raison que, si une atteinte rénale est suspectée (à la suite d'un examen biologique anormal : protéinurie élevée ou présence de sédiments urinaires), la biopsie rénale - un acte invasif réalisé sous anesthésie - reste un examen fondamental pour l’évaluation et la prise en charge de la glomérulonéphrite lupique [2, 12, 13].
 Seule la biopsie rénale permet d’identifier la classe histologique de la glomérulonéphrite lupique (classification ISN/RPS 2003 [2-4]) et par la suite de mettre en place un traitement adapté [2, 12, 14, 15].
-En effet, le choix des traitements dépend à la fois de la classe histologique identifiée (classification ISN/RPS 2003 [2-4]) et de l’activité de la maladie lupique.
-Traitements
-Les traitements médicamenteux permettent de contrôler la maladie et de préserver la fonction rénale : par conséquent de diminuer le nombre de cas, la mortalité et de préserver la fertilité (le lupus touchant principalement des femmes en âge de procréer).
+En effet, le choix des traitements dépend à la fois de la classe histologique identifiée (classification ISN/RPS 2003 [2-4]) et de l’activité de la maladie lupique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glomérulonéphrite_lupique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glom%C3%A9rulon%C3%A9phrite_lupique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les traitements médicamenteux permettent de contrôler la maladie et de préserver la fonction rénale : par conséquent de diminuer le nombre de cas, la mortalité et de préserver la fertilité (le lupus touchant principalement des femmes en âge de procréer).
 Il faut d’abord noter que les traitements de « base » du lupus (l’hydroxychloroquine par exemple) ont démontré un rôle « protecteur » pour prévenir l’apparition de l’atteinte rénale et sa rémission.
 En cas de glomérulonéphrite lupique, la plupart des formes peuvent être traitées efficacement avec des glucocorticoïdes et un immunosuppresseur (mycophénolate mofétil le plus souvent, mais aussi l’azathioprine, le cyclophosphamide, le tacrolimus et/ou les inhibiteurs de calcineurine dans certains cas).
 En cas de glomérulonéphrite lupique réfractaire aux traitements conventionnels (association glucocorticoïdes et immunosuppresseurs), des biomédicaments (ou traitements ciblés) peuvent constituer une alternative. Cependant, à ce jour, aucun biomédicament n’a montré d’efficacité formelle sur la glomérulonéphrite lupique au cours d’un essai clinique randomisé contrôlé. Néanmoins certains biomédicaments, ayant prouvé leur efficacité dans d’autres formes de lupus ou de maladie auto-immune (comme le rituximab ou le belimumab), peuvent être prescrits de façon dérogatoire, hors de leur AMM, pour traiter une glomérulonéphrite lupique réfractaire.
